--- a/DATA_goal/Junction_Flooding_174.xlsx
+++ b/DATA_goal/Junction_Flooding_174.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41606.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.69</v>
+        <v>0.17</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.34</v>
+        <v>0.23</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.41</v>
+        <v>0.04</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.6</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.17</v>
+        <v>0.22</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.92</v>
+        <v>0.19</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>3.08</v>
+        <v>0.31</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.62</v>
+        <v>0.16</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.35</v>
+        <v>0.14</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>3.62</v>
+        <v>0.36</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.68</v>
+        <v>0.17</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>17.69</v>
+        <v>1.77</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.34</v>
+        <v>0.63</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.04</v>
+        <v>0.1</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.25</v>
+        <v>0.12</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.41</v>
+        <v>0.14</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.55</v>
+        <v>0.05</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.79</v>
+        <v>0.18</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41606.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>11.44</v>
+        <v>1.14</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.15</v>
+        <v>0.92</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.65</v>
+        <v>2.57</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.27</v>
+        <v>0.93</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>29.09</v>
+        <v>2.91</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>13.76</v>
+        <v>1.38</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.51</v>
+        <v>0.65</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.3</v>
+        <v>1.03</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.02</v>
+        <v>1</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.66</v>
+        <v>1.07</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.94</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>12.91</v>
+        <v>1.29</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>7.45</v>
+        <v>0.74</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.11</v>
+        <v>0.11</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>131.84</v>
+        <v>13.18</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.23</v>
+        <v>2.62</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>16.89</v>
+        <v>1.69</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>8.859999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.63</v>
+        <v>0.16</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.95</v>
+        <v>1.49</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.43</v>
+        <v>0.74</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.22</v>
+        <v>0.62</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>7.99</v>
+        <v>0.8</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.72</v>
+        <v>1.07</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.8</v>
+        <v>2.58</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.24</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41606.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>6</v>
+        <v>0.6</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.78</v>
+        <v>1.68</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.07</v>
+        <v>0.61</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.35</v>
+        <v>2.43</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.039999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.73</v>
+        <v>0.67</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.550000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.91</v>
+        <v>0.49</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>83.98</v>
+        <v>8.4</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>17.39</v>
+        <v>1.74</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.23</v>
+        <v>1.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.8</v>
+        <v>0.58</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.85</v>
+        <v>1.18</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.88</v>
+        <v>0.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.08</v>
+        <v>0.41</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.24</v>
+        <v>0.52</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>22.2</v>
+        <v>2.22</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.71</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41606.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>23.77</v>
+        <v>2.38</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>18.14</v>
+        <v>1.81</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52.08</v>
+        <v>5.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>42.63</v>
+        <v>4.26</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>18.84</v>
+        <v>1.88</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>69.51000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>28.78</v>
+        <v>2.88</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>13.08</v>
+        <v>1.31</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>19.8</v>
+        <v>1.98</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>20.79</v>
+        <v>2.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>22.01</v>
+        <v>2.2</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>6.01</v>
+        <v>0.6</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>18.57</v>
+        <v>1.86</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>26.73</v>
+        <v>2.67</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>277.48</v>
+        <v>27.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>52.65</v>
+        <v>5.26</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>17.13</v>
+        <v>1.71</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>35.27</v>
+        <v>3.53</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>18.46</v>
+        <v>1.85</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>2.64</v>
+        <v>0.26</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>34.44</v>
+        <v>3.44</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>15.25</v>
+        <v>1.53</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>13.22</v>
+        <v>1.32</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>21.95</v>
+        <v>2.19</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>62.98</v>
+        <v>6.3</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>10.04</v>
+        <v>1</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>21.44</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41606.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>13.62</v>
+        <v>1.36</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>10.46</v>
+        <v>1.05</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>15.62</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>29.91</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>24.39</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>10.82</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>11.45</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>156.21</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>30.44</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>20.31</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.57</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.76</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.8</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41606.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>11.81</v>
+        <v>1.18</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>9.06</v>
+        <v>0.91</v>
       </c>
       <c r="D7" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="F7" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G7" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="H7" s="4" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="I7" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="J7" s="4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="L7" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M7" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>13.45</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="Y7" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="Z7" s="4" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AA7" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AB7" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="AC7" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AD7" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AE7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="AF7" s="4" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AG7" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="E7" s="4" t="n">
-        <v>25.93</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>9.380000000000001</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>37.75</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>6.52</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>10.35</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>10.94</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>13.33</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>134.48</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>26.34</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>17.58</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>18.09</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>10.93</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>5.03</v>
-      </c>
       <c r="AH7" s="4" t="n">
-        <v>10.65</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41606.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>19.03</v>
+        <v>1.9</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>14.46</v>
+        <v>1.45</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>41.61</v>
+        <v>4.16</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>34.15</v>
+        <v>3.42</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.05</v>
+        <v>1.51</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>57.17</v>
+        <v>5.72</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>23.05</v>
+        <v>2.3</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>10.43</v>
+        <v>1.04</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>15.73</v>
+        <v>1.57</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>16.65</v>
+        <v>1.66</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>17.6</v>
+        <v>1.76</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>4.81</v>
+        <v>0.48</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>14.87</v>
+        <v>1.49</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>21.39</v>
+        <v>2.14</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>12.38</v>
+        <v>1.24</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>220.33</v>
+        <v>22.03</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>42.01</v>
+        <v>4.2</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>28.24</v>
+        <v>2.82</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>27.98</v>
+        <v>2.8</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.2</v>
+        <v>1.22</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>12.67</v>
+        <v>1.27</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>17.55</v>
+        <v>1.75</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.09</v>
+        <v>0.01</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>51.78</v>
+        <v>5.18</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>7.98</v>
+        <v>0.8</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>17.17</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41606.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>1.27</v>
+        <v>0.13</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>1.09</v>
+        <v>0.11</v>
       </c>
       <c r="D9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F9" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G9" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H9" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J9" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L9" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="M9" s="4" t="n">
         <v>0.12</v>
       </c>
-      <c r="E9" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>1.19</v>
-      </c>
       <c r="N9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>0.97</v>
+        <v>0.1</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>1.73</v>
+        <v>0.17</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="S9" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T9" s="4" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="U9" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="V9" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="W9" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="4" t="n">
         <v>0.11</v>
       </c>
-      <c r="T9" s="4" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>3.71</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.89</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>1.12</v>
-      </c>
       <c r="Y9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>5.33</v>
+        <v>0.53</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>0.96</v>
+        <v>0.1</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>1.23</v>
+        <v>0.12</v>
       </c>
       <c r="AE9" s="4" t="n">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>11.67</v>
+        <v>1.17</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>0.64</v>
+        <v>0.06</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41606.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>15.21</v>
+        <v>1.52</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>11.55</v>
+        <v>1.16</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>33.24</v>
+        <v>3.32</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>27.29</v>
+        <v>2.73</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.03</v>
+        <v>1.2</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>42.64</v>
+        <v>4.26</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>18.42</v>
+        <v>1.84</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>12.57</v>
+        <v>1.26</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>13.31</v>
+        <v>1.33</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>14.06</v>
+        <v>1.41</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11.88</v>
+        <v>1.19</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>174.54</v>
+        <v>17.45</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>33.41</v>
+        <v>3.34</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>22.46</v>
+        <v>2.25</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>11.79</v>
+        <v>1.18</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.64</v>
+        <v>0.16</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>9.75</v>
+        <v>0.97</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>8.470000000000001</v>
+        <v>0.85</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.13</v>
+        <v>1.01</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.02</v>
+        <v>1.4</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>38.25</v>
+        <v>3.82</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>13.72</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_174.xlsx
+++ b/DATA_goal/Junction_Flooding_174.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41606.34027777778</v>
+        <v>44855.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.17</v>
+        <v>2.45</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.23</v>
+        <v>1.71</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.18</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.22</v>
+        <v>4.28</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.31</v>
+        <v>6.46</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.16</v>
+        <v>2.97</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.27</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>28.45</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AE2" s="4" t="n">
         <v>0.36</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="AF2" s="4" t="n">
-        <v>0.18</v>
+        <v>5.73</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.19</v>
+        <v>0.99</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.13</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41606.34722222222</v>
+        <v>44855.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.14</v>
+        <v>0.02</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.92</v>
+        <v>0.05</v>
       </c>
       <c r="D3" s="4" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>0.06</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.38</v>
-      </c>
       <c r="J3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.02</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.03</v>
+        <v>0.01</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1</v>
+        <v>0.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.04</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.06</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.11</v>
+        <v>0.15</v>
       </c>
       <c r="S3" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>13.18</v>
+        <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.62</v>
+        <v>0.18</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.03</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.69</v>
+        <v>0.12</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.89</v>
+        <v>0.06</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.49</v>
+        <v>0.41</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.74</v>
+        <v>0.03</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.03</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.8</v>
+        <v>0.02</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.07</v>
+        <v>0.03</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.58</v>
+        <v>1.01</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.01</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41606.35416666666</v>
+        <v>44855.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.75</v>
+        <v>2.43</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.85</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.16</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.68</v>
+        <v>5.29</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.33</v>
+        <v>4.35</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.92</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.61</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.92</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.85</v>
+        <v>2.72</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.49</v>
+        <v>1.61</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.4</v>
+        <v>28.5</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.74</v>
+        <v>5.35</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.54</v>
+        <v>1.77</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.12</v>
+        <v>3.59</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.58</v>
+        <v>1.91</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.18</v>
+        <v>3.42</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>1.56</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.41</v>
+        <v>1.37</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.52</v>
+        <v>1.61</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.7</v>
+        <v>2.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.22</v>
+        <v>6.24</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.34</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.67</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41606.36111111111</v>
+        <v>44855.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>2.38</v>
+        <v>0.75</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.81</v>
+        <v>0.58</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>5.21</v>
+        <v>1.64</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>4.26</v>
+        <v>1.34</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.88</v>
+        <v>0.62</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>6.95</v>
+        <v>2.85</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.88</v>
+        <v>0.93</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="Z5" s="4" t="n">
         <v>1.31</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>27.75</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>3.44</v>
-      </c>
       <c r="AA5" s="4" t="n">
-        <v>1.53</v>
+        <v>0.49</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>1.32</v>
+        <v>0.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.59</v>
+        <v>0.5</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>2.19</v>
+        <v>0.7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>6.3</v>
+        <v>2.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1</v>
+        <v>0.31</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>2.14</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41606.36805555555</v>
+        <v>44855.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.36</v>
+        <v>22.94</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.05</v>
+        <v>17.36</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.06</v>
+        <v>1.21</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.99</v>
+        <v>49.9</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>2.44</v>
+        <v>41.13</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.08</v>
+        <v>18.33</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>4.48</v>
+        <v>67.56</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.65</v>
+        <v>27.92</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.75</v>
+        <v>12.41</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>1.14</v>
+        <v>18.57</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>1.19</v>
+        <v>20.06</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>1.26</v>
+        <v>21.12</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.35</v>
+        <v>5.75</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1.06</v>
+        <v>18.05</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.54</v>
+        <v>25.7</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.89</v>
+        <v>15.13</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.05</v>
+        <v>0.83</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>15.62</v>
+        <v>267.55</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>3.04</v>
+        <v>50.4</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.98</v>
+        <v>16.66</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>2.03</v>
+        <v>33.95</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>1.06</v>
+        <v>18</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.16</v>
+        <v>2.35</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>2.14</v>
+        <v>33.15</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.88</v>
+        <v>14.69</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.76</v>
+        <v>12.96</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.92</v>
+        <v>15.18</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>1.26</v>
+        <v>21.13</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.01</v>
+        <v>0.43</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>4.08</v>
+        <v>61.12</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.58</v>
+        <v>9.44</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41606.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>1.06</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41606.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.72</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>22.03</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41606.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41606.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.73</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>17.45</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.37</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41606.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>19.65</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>16.07</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>29.65</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>4.95</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>7</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>13.4</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>14.23</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>4.99</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>8.289999999999999</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>27.07</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>8.09</v>
+        <v>20.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_174.xlsx
+++ b/DATA_goal/Junction_Flooding_174.xlsx
@@ -446,7 +446,7 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
@@ -457,15 +457,15 @@
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
     <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
@@ -655,103 +655,103 @@
         <v>44855.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.45</v>
+        <v>24.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.71</v>
+        <v>17.07</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>5.18</v>
+        <v>51.77</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.28</v>
+        <v>42.83</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.93</v>
+        <v>19.28</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.46</v>
+        <v>64.65000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.27</v>
+        <v>12.71</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.96</v>
+        <v>19.6</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.01</v>
+        <v>20.15</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.14</v>
+        <v>21.39</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.71</v>
+        <v>27.06</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.59</v>
+        <v>15.86</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.26</v>
+        <v>2.61</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>28.45</v>
+        <v>284.51</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>5.34</v>
+        <v>53.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.56</v>
+        <v>35.64</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.85</v>
+        <v>18.49</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>3.2</v>
+        <v>31.96</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.63</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.4</v>
+        <v>13.96</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.63</v>
+        <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.11</v>
+        <v>21.12</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.73</v>
+        <v>57.29</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.99</v>
+        <v>9.94</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.21</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44855.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>0.05</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>0</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.53</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,64 +798,64 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.47</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="V3" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="Y3" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="W3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="Z3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.27</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.28</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.22</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44855.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.43</v>
+        <v>24.32</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.85</v>
+        <v>18.47</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.16</v>
+        <v>1.59</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.29</v>
+        <v>52.85</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.35</v>
+        <v>43.51</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.94</v>
+        <v>19.42</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.92</v>
+        <v>69.2</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.97</v>
+        <v>29.67</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.31</v>
+        <v>13.1</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.67</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.12</v>
+        <v>21.24</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.23</v>
+        <v>22.33</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.05</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.92</v>
+        <v>19.17</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.72</v>
+        <v>27.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.12</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.15</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>28.5</v>
+        <v>284.96</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.35</v>
+        <v>53.48</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.59</v>
+        <v>35.93</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.91</v>
+        <v>19.1</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.42</v>
+        <v>34.2</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.75</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.1</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.24</v>
+        <v>22.4</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.24</v>
+        <v>62.4</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1</v>
+        <v>9.99</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.11</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44855.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.75</v>
+        <v>7.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.58</v>
+        <v>5.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.64</v>
+        <v>16.39</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.34</v>
+        <v>13.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.62</v>
+        <v>6.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.85</v>
+        <v>28.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.41</v>
+        <v>4.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.66</v>
+        <v>6.61</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.19</v>
+        <v>1.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.85</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>8.449999999999999</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.7</v>
+        <v>17.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.13</v>
+        <v>11.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.12</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.61</v>
+        <v>26.13</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.09</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.92</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_174.xlsx
+++ b/DATA_goal/Junction_Flooding_174.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44855.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>24.5</v>
+        <v>24.502</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>17.07</v>
+        <v>17.071</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.27</v>
+        <v>4.266</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>51.77</v>
+        <v>51.765</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>42.83</v>
+        <v>42.826</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>19.28</v>
+        <v>19.282</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>64.65000000000001</v>
+        <v>64.646</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>12.71</v>
+        <v>12.708</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>19.6</v>
+        <v>19.604</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>20.15</v>
+        <v>20.148</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>21.39</v>
+        <v>21.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>6.16</v>
+        <v>6.157</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>27.06</v>
+        <v>27.062</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.86</v>
+        <v>15.864</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.99</v>
+        <v>3.991</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.61</v>
+        <v>2.607</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>284.51</v>
+        <v>284.514</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>53.42</v>
+        <v>53.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>35.64</v>
+        <v>35.645</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>18.49</v>
+        <v>18.491</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.5</v>
+        <v>2.496</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>31.96</v>
+        <v>31.956</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>15.63</v>
+        <v>15.633</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.96</v>
+        <v>13.958</v>
       </c>
       <c r="AC2" s="4" t="n">
         <v>16.32</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>21.12</v>
+        <v>21.117</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.641</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>57.29</v>
+        <v>57.291</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.94</v>
+        <v>9.936999999999999</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>22.13</v>
+        <v>22.127</v>
       </c>
     </row>
     <row r="3">
@@ -759,37 +759,37 @@
         <v>44855.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.233</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.466</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.28</v>
+        <v>1.278</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>10.53</v>
+        <v>10.535</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.58</v>
+        <v>0.582</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.204</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.091</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.151</v>
       </c>
       <c r="M3" s="4" t="n">
         <v>0</v>
@@ -798,64 +798,64 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.376</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.652</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.55</v>
+        <v>0.554</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.47</v>
+        <v>1.471</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.47</v>
+        <v>0.473</v>
       </c>
       <c r="T3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.82</v>
+        <v>1.821</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.35</v>
+        <v>0.347</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.18</v>
+        <v>1.183</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.62</v>
+        <v>0.616</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.14</v>
+        <v>4.145</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.29</v>
+        <v>0.286</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.269</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.23</v>
+        <v>0.228</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.28</v>
+        <v>0.276</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.22</v>
+        <v>1.221</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>10.12</v>
+        <v>10.116</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.052</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.44</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44855.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.32</v>
+        <v>24.322</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.47</v>
+        <v>18.471</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.59</v>
+        <v>1.593</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.85</v>
+        <v>52.854</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.51</v>
+        <v>43.514</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>19.42</v>
+        <v>19.423</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.2</v>
+        <v>69.20399999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>29.67</v>
+        <v>29.668</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.1</v>
+        <v>13.103</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.67</v>
+        <v>19.671</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.24</v>
+        <v>21.236</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.33</v>
+        <v>22.332</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>6.05</v>
+        <v>6.051</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>19.17</v>
+        <v>19.174</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>27.24</v>
+        <v>27.242</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>16.12</v>
+        <v>16.116</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.15</v>
+        <v>1.147</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>284.96</v>
+        <v>284.962</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>53.48</v>
+        <v>53.475</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.7</v>
+        <v>17.698</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.93</v>
+        <v>35.935</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>19.1</v>
+        <v>19.097</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.5</v>
+        <v>2.497</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>34.2</v>
+        <v>34.199</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>15.61</v>
+        <v>15.613</v>
       </c>
       <c r="AB4" s="4" t="n">
         <v>13.75</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>16.1</v>
+        <v>16.103</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.4</v>
+        <v>22.404</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.4</v>
+        <v>62.401</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>9.99</v>
+        <v>9.989000000000001</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>22.11</v>
+        <v>22.106</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>6.92</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44855.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.13</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.95</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.12</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_174.xlsx
+++ b/DATA_goal/Junction_Flooding_174.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44855.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.55</v>
+        <v>7.545</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.82</v>
+        <v>5.817</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.39</v>
+        <v>16.388</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.4</v>
+        <v>13.403</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.23</v>
+        <v>6.235</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.47</v>
+        <v>28.468</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.31</v>
+        <v>9.308</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.05</v>
+        <v>4.054</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>6.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.61</v>
+        <v>6.612</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.88</v>
+        <v>6.879</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.87</v>
+        <v>1.867</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.02</v>
+        <v>6.015</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>8.534000000000001</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>5.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.758</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.422</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.54000000000001</v>
+        <v>84.53700000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.05</v>
+        <v>17.049</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.55</v>
+        <v>5.552</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.33</v>
+        <v>11.328</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.07</v>
+        <v>6.069</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.12</v>
+        <v>13.119</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.88</v>
+        <v>4.885</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.36</v>
+        <v>4.358</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.04</v>
+        <v>5.043</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7</v>
+        <v>7.004</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.547</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.13</v>
+        <v>26.135</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.09</v>
+        <v>3.087</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.92</v>
+        <v>6.923</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44855.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>17.36</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>41.13</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>67.56</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>27.92</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>18.57</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>20.06</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>21.12</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>18.05</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>25.7</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>15.13</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>267.55</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>16.66</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>33.15</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>14.69</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.96</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>15.18</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>61.12</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.44</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>20.81</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_174.xlsx
+++ b/DATA_goal/Junction_Flooding_174.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44855.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>7.545</v>
+        <v>7.55</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.817</v>
+        <v>5.82</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>16.388</v>
+        <v>16.39</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>13.403</v>
+        <v>13.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>6.235</v>
+        <v>6.23</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>28.468</v>
+        <v>28.47</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>9.308</v>
+        <v>9.31</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>4.054</v>
+        <v>4.05</v>
       </c>
       <c r="K5" s="4" t="n">
         <v>6.05</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.612</v>
+        <v>6.61</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.879</v>
+        <v>6.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.867</v>
+        <v>1.87</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>6.015</v>
+        <v>6.02</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>8.534000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="Q5" s="4" t="n">
         <v>5.19</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.758</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.422</v>
+        <v>0.42</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>84.53700000000001</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>17.049</v>
+        <v>17.05</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>5.552</v>
+        <v>5.55</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>11.328</v>
+        <v>11.33</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>6.069</v>
+        <v>6.07</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>13.119</v>
+        <v>13.12</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.885</v>
+        <v>4.88</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>4.358</v>
+        <v>4.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>5.043</v>
+        <v>5.04</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>7.004</v>
+        <v>7</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.547</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>26.135</v>
+        <v>26.13</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.087</v>
+        <v>3.09</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>6.923</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44855.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>22.94</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>17.36</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>49.9</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>41.13</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>18.33</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>67.56</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>27.92</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>18.57</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>20.06</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>21.12</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.75</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>18.05</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>25.7</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>267.55</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>50.4</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>16.66</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>33.95</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>18</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>33.15</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.96</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>15.18</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>21.13</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>61.12</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>20.81</v>
+        <v>6.92</v>
       </c>
     </row>
   </sheetData>
